--- a/biology/Microbiologie/Myxococcus/Myxococcus.xlsx
+++ b/biology/Microbiologie/Myxococcus/Myxococcus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myxococcus est un genre de bactérie qui présente un cycle de vie complexe avec des cellules mobiles et des fructifications. Ce sont des Myxobactéries.
 Ce sont des bactéries communes dans le sol, les déjections en décomposition, les végétaux morts. Dans certaines conditions, les cellules peuvent se déplacer en groupe par glissement sur le substrat.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit en 1892 par le microbiologiste Roland Thaxter[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit en 1892 par le microbiologiste Roland Thaxter.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon la LPSN  (12 octobre 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon la LPSN  (12 octobre 2021) :
 Myxococcus eversor Chambers et al., 2021
 Myxococcus fulvus (Cohn, 1875) Jahn, 1911 (Approved Lists, 1980)
 "Myxococcus hansupus" Sharma et al., 2016, nom invalide
